--- a/sample/input/registers.xlsx
+++ b/sample/input/registers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\casto\git\grams\ipxact-register-generator\sample\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9ABCE-8BE8-4182-BF92-558AB518568D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93380E9-1E0B-403F-A623-E928404DB100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="30"/>
@@ -1128,7 +1128,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="28">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="30"/>
@@ -1241,7 +1241,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="28">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="26"/>
@@ -1349,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="28">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="30"/>
@@ -1458,7 +1458,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="28">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="30"/>
@@ -1543,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="28">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="26"/>
@@ -1626,7 +1626,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="28">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="30"/>
@@ -1710,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="B47" s="28">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="30"/>
